--- a/pred_ohlcv/54_21/2020-01-20 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 IPX ohlcv.xlsx
@@ -15082,7 +15082,7 @@
         <v>-1190820.266100375</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-908668.1608003748</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-910104.0839003748</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-901451.9626003748</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-869227.9613003748</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-903089.3600003748</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-901689.8005003749</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-902435.9438003749</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-669313.9201003748</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-669313.9201003748</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-594698.4998003748</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-504925.9433003749</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-504925.9433003749</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-549642.5105003749</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-549642.5105003749</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-549642.5105003749</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-519872.9450003749</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-543394.9023003749</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-569738.499800375</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-594155.023900375</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-581376.661700375</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-581376.661700375</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-603123.2544003751</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-617117.7470003751</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-629636.1905003751</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-640698.8600003751</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-663758.885800375</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-657300.647400375</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-684218.051500375</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-707785.2570003751</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-704977.1380003751</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-708846.5902003752</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-758697.5321003752</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-785480.7697003752</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -32450,7 +32450,7 @@
         <v>-1941948.890075475</v>
       </c>
       <c r="H1233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:8">
@@ -32476,7 +32476,7 @@
         <v>-1937842.709375475</v>
       </c>
       <c r="H1234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:8">
@@ -32502,7 +32502,7 @@
         <v>-1941471.259375475</v>
       </c>
       <c r="H1235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-1936432.769175475</v>
       </c>
       <c r="H1236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-1936432.769175475</v>
       </c>
       <c r="H1237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-1939931.667975475</v>
       </c>
       <c r="H1238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-1936928.351094568</v>
       </c>
       <c r="H1239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-1936928.351094568</v>
       </c>
       <c r="H1240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-1936928.351094568</v>
       </c>
       <c r="H1241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-1940486.313194568</v>
       </c>
       <c r="H1242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-1937585.310594568</v>
       </c>
       <c r="H1243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-1965041.804394568</v>
       </c>
       <c r="H1244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-1965041.804394568</v>
       </c>
       <c r="H1245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-1951656.682194568</v>
       </c>
       <c r="H1246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-1950257.122694568</v>
       </c>
       <c r="H1247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-1951656.682194568</v>
       </c>
       <c r="H1248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-1948165.117294568</v>
       </c>
       <c r="H1249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-1948165.117294568</v>
       </c>
       <c r="H1250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-1947465.337594568</v>
       </c>
       <c r="H1251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-1943266.659094568</v>
       </c>
       <c r="H1252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-1942566.879394568</v>
       </c>
       <c r="H1253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-1941762.611094568</v>
       </c>
       <c r="H1254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-2039356.294875475</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-2041485.998575475</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-2043585.337875475</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>-1896087.531236661</v>
       </c>
       <c r="H1279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>-1287496.453964635</v>
       </c>
       <c r="H1295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>-1251296.085764635</v>
       </c>
       <c r="H1296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>-1085110.493405746</v>
       </c>
       <c r="H1297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>-1155004.214105746</v>
       </c>
       <c r="H1298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>-1064097.482641059</v>
       </c>
       <c r="H1299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-1085330.976841059</v>
       </c>
       <c r="H1300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-1128876.172641059</v>
       </c>
       <c r="H1301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-1187468.693041059</v>
       </c>
       <c r="H1302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>-1233531.830141059</v>
       </c>
       <c r="H1303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>-1208532.347241059</v>
       </c>
       <c r="H1304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-1298843.398041059</v>
       </c>
       <c r="H1305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>-1322333.573041059</v>
       </c>
       <c r="H1306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-1322333.573041059</v>
       </c>
       <c r="H1307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>-1383744.757041059</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-1419717.338941059</v>
       </c>
       <c r="H1316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>-1439332.866241059</v>
       </c>
       <c r="H1317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>-1473846.069741059</v>
       </c>
       <c r="H1318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>-1477672.796741059</v>
       </c>
       <c r="H1319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>-1477672.796741059</v>
       </c>
       <c r="H1320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>-1517427.547041059</v>
       </c>
       <c r="H1321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>-1517427.547041059</v>
       </c>
       <c r="H1323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1324" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 IPX ohlcv.xlsx
@@ -15082,7 +15082,7 @@
         <v>-1190820.266100375</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-908668.1608003748</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-910104.0839003748</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-901451.9626003748</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-869227.9613003748</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-903089.3600003748</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-901689.8005003749</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-902435.9438003749</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-669313.9201003748</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-669313.9201003748</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-594698.4998003748</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-504925.9433003749</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-504925.9433003749</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-504925.9433003749</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-549642.5105003749</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-549642.5105003749</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-519872.9450003749</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-543394.9023003749</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-569738.499800375</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-594155.023900375</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-581376.661700375</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-581376.661700375</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-603123.2544003751</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-617117.7470003751</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-629636.1905003751</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-640698.8600003751</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-663758.885800375</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-657300.647400375</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-684218.051500375</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-707785.2570003751</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-704977.1380003751</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-708846.5902003752</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-758697.5321003752</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-785480.7697003752</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -32528,7 +32528,7 @@
         <v>-1936432.769175475</v>
       </c>
       <c r="H1236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1237" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-1936432.769175475</v>
       </c>
       <c r="H1237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-1939931.667975475</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-1936928.351094568</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
@@ -32632,7 +32632,7 @@
         <v>-1936928.351094568</v>
       </c>
       <c r="H1240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1241" spans="1:8">
@@ -32658,7 +32658,7 @@
         <v>-1936928.351094568</v>
       </c>
       <c r="H1241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1242" spans="1:8">
@@ -32684,7 +32684,7 @@
         <v>-1940486.313194568</v>
       </c>
       <c r="H1242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1243" spans="1:8">
@@ -32710,7 +32710,7 @@
         <v>-1937585.310594568</v>
       </c>
       <c r="H1243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" spans="1:8">
@@ -32736,7 +32736,7 @@
         <v>-1965041.804394568</v>
       </c>
       <c r="H1244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1245" spans="1:8">
@@ -32762,7 +32762,7 @@
         <v>-1965041.804394568</v>
       </c>
       <c r="H1245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1246" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-1951656.682194568</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-1950257.122694568</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-1951656.682194568</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-1948165.117294568</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-1948165.117294568</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-1947465.337594568</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-1943266.659094568</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-1942566.879394568</v>
       </c>
       <c r="H1253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-1941762.611094568</v>
       </c>
       <c r="H1254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-1935948.118375475</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-1997039.099675475</v>
       </c>
       <c r="H1256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-1993504.951775475</v>
       </c>
       <c r="H1257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-1983694.172075475</v>
       </c>
       <c r="H1258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-1980160.226575475</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-2044268.226975475</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-2039356.294875475</v>
       </c>
       <c r="H1264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-2041485.998575475</v>
       </c>
       <c r="H1265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33672,7 +33672,7 @@
         <v>-1884873.828253307</v>
       </c>
       <c r="H1280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>-1287496.453964635</v>
       </c>
       <c r="H1295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>-1251296.085764635</v>
       </c>
       <c r="H1296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>-1085110.493405746</v>
       </c>
       <c r="H1297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>-1155004.214105746</v>
       </c>
       <c r="H1298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>-1064097.482641059</v>
       </c>
       <c r="H1299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-1085330.976841059</v>
       </c>
       <c r="H1300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-1128876.172641059</v>
       </c>
       <c r="H1301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-1187468.693041059</v>
       </c>
       <c r="H1302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>-1233531.830141059</v>
       </c>
       <c r="H1303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>-1208532.347241059</v>
       </c>
       <c r="H1304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-1298843.398041059</v>
       </c>
       <c r="H1305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>-1322333.573041059</v>
       </c>
       <c r="H1306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-1322333.573041059</v>
       </c>
       <c r="H1307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>-1383744.757041059</v>
       </c>
       <c r="H1315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-1419717.338941059</v>
       </c>
       <c r="H1316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>-1439332.866241059</v>
       </c>
       <c r="H1317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>-1473846.069741059</v>
       </c>
       <c r="H1318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>-1477672.796741059</v>
       </c>
       <c r="H1319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>-1477672.796741059</v>
       </c>
       <c r="H1320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>-1517427.547041059</v>
       </c>
       <c r="H1321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>-1517427.547041059</v>
       </c>
       <c r="H1323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
